--- a/trunk/Arquitectura de Negocios/RAM v3.0.xlsx
+++ b/trunk/Arquitectura de Negocios/RAM v3.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="96">
   <si>
     <t>PLANIFICACIÓN</t>
   </si>
@@ -358,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,7 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,25 +982,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,7 +1307,8 @@
   <dimension ref="B3:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2194,7 @@
       <c r="C35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="52" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="14"/>
@@ -2211,7 +2218,7 @@
     <row r="36" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="39"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="53" t="s">
         <v>68</v>
       </c>
       <c r="E36" s="12"/>
@@ -2235,7 +2242,7 @@
     <row r="37" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="39"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="12"/>
@@ -2261,7 +2268,7 @@
     <row r="38" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="39"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="53" t="s">
         <v>70</v>
       </c>
       <c r="E38" s="12"/>
@@ -2289,7 +2296,7 @@
     <row r="39" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="39"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="54" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="13"/>
@@ -2317,7 +2324,7 @@
       <c r="C40" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="52" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="14"/>
@@ -2353,7 +2360,7 @@
     <row r="41" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="39"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="12"/>
@@ -2391,7 +2398,7 @@
     <row r="42" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="39"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="12"/>
@@ -2417,7 +2424,7 @@
     <row r="43" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="39"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="53" t="s">
         <v>73</v>
       </c>
       <c r="E43" s="12"/>
@@ -2443,7 +2450,7 @@
     <row r="44" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="39"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="12"/>
@@ -2467,7 +2474,7 @@
     <row r="45" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="39"/>
       <c r="C45" s="48"/>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="55" t="s">
         <v>75</v>
       </c>
       <c r="E45" s="24"/>
@@ -2501,7 +2508,7 @@
     <row r="46" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="39"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -2533,7 +2540,7 @@
       <c r="C47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="14"/>
@@ -2565,7 +2572,7 @@
     <row r="48" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="39"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E48" s="12"/>
@@ -2591,7 +2598,7 @@
     <row r="49" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="39"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="54" t="s">
         <v>78</v>
       </c>
       <c r="E49" s="13"/>
@@ -2619,7 +2626,7 @@
       <c r="C50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="52" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="14"/>
@@ -2655,7 +2662,7 @@
     <row r="51" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="39"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="53" t="s">
         <v>80</v>
       </c>
       <c r="E51" s="12"/>
@@ -2691,7 +2698,7 @@
     <row r="52" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="39"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="53" t="s">
         <v>81</v>
       </c>
       <c r="E52" s="12"/>
@@ -2727,7 +2734,7 @@
     <row r="53" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="39"/>
       <c r="C53" s="30"/>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="53" t="s">
         <v>82</v>
       </c>
       <c r="E53" s="12"/>
@@ -2751,7 +2758,7 @@
     <row r="54" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="39"/>
       <c r="C54" s="30"/>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="53" t="s">
         <v>83</v>
       </c>
       <c r="E54" s="12"/>
@@ -2787,7 +2794,7 @@
     <row r="55" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="39"/>
       <c r="C55" s="30"/>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="53" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="12"/>
@@ -2823,7 +2830,7 @@
     <row r="56" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="53" t="s">
         <v>85</v>
       </c>
       <c r="E56" s="12"/>
@@ -2859,7 +2866,7 @@
     <row r="57" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="53" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="12"/>
@@ -2895,7 +2902,7 @@
     <row r="58" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="39"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="54" t="s">
         <v>87</v>
       </c>
       <c r="E58" s="13"/>
@@ -2931,7 +2938,7 @@
       <c r="C59" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="52" t="s">
         <v>88</v>
       </c>
       <c r="E59" s="14"/>
@@ -2955,7 +2962,7 @@
     <row r="60" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="39"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="53" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="12"/>
@@ -2979,13 +2986,15 @@
     <row r="61" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="39"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="53" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I61" s="7" t="s">
         <v>34</v>
       </c>
@@ -2994,9 +3003,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
@@ -3007,7 +3014,7 @@
     <row r="62" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="53" t="s">
         <v>91</v>
       </c>
       <c r="E62" s="12"/>
@@ -3035,7 +3042,7 @@
     <row r="63" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="39"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="53" t="s">
         <v>92</v>
       </c>
       <c r="E63" s="12"/>
@@ -3062,14 +3069,16 @@
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="R63" s="7"/>
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="39"/>
       <c r="C64" s="30"/>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="53" t="s">
         <v>93</v>
       </c>
       <c r="E64" s="12"/>
@@ -3095,7 +3104,7 @@
     <row r="65" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="54" t="s">
         <v>94</v>
       </c>
       <c r="E65" s="13"/>
